--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893879.5947353414</v>
+        <v>-896428.251921362</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>308.9203564757148</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>280.6322031400819</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>39.47168301525299</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>156.8454273099539</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>294.5755274368618</v>
+        <v>375.1827430687553</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>63.10873435712692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>43.51301346010043</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>188.2294983731959</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>229.4650736209697</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>57.77712027565845</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>132.3800310390784</v>
       </c>
     </row>
     <row r="11">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>80.07147829118306</v>
+        <v>167.2468210986312</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>195.5593521176142</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>45.17596778974944</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422898</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>129.5380597272486</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>133.8107367464746</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599953</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>98.74897854931402</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>125.949153498283</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673014</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>45.66054613217611</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>20.38427178197992</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703267</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>15.09910835322229</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164.2607468869785</v>
+        <v>164.2607468869778</v>
       </c>
       <c r="C34" t="n">
-        <v>151.675587803669</v>
+        <v>151.6755878036683</v>
       </c>
       <c r="D34" t="n">
-        <v>133.0442397232536</v>
+        <v>56.17220388511293</v>
       </c>
       <c r="E34" t="n">
-        <v>130.8627293516104</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>129.8498147279724</v>
+        <v>129.8498147279717</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>149.9529049973093</v>
       </c>
       <c r="H34" t="n">
-        <v>124.7234795512651</v>
+        <v>124.7234795512644</v>
       </c>
       <c r="I34" t="n">
-        <v>65.69460302360673</v>
+        <v>65.69460302360602</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.80401341516288</v>
+        <v>50.80401341516218</v>
       </c>
       <c r="S34" t="n">
-        <v>165.4550527066858</v>
+        <v>165.4550527066851</v>
       </c>
       <c r="T34" t="n">
-        <v>201.8342170323295</v>
+        <v>201.8342170323288</v>
       </c>
       <c r="U34" t="n">
-        <v>270.6132410942853</v>
+        <v>270.6132410942847</v>
       </c>
       <c r="V34" t="n">
-        <v>236.5664100288692</v>
+        <v>236.5664100288685</v>
       </c>
       <c r="W34" t="n">
-        <v>270.9517650416322</v>
+        <v>270.9517650416315</v>
       </c>
       <c r="X34" t="n">
-        <v>152.3565619016217</v>
+        <v>210.1384220940776</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.013420057136</v>
+        <v>203.0134200571353</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
         <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652495</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652581</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.569348694473</v>
+        <v>1175.344218980306</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.606831754061</v>
+        <v>1175.344218980306</v>
       </c>
       <c r="D2" t="n">
-        <v>764.3411331473112</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E2" t="n">
-        <v>378.5528805490671</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F2" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265601</v>
+        <v>2678.317804551433</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995486</v>
+        <v>2325.549149281319</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734407</v>
+        <v>1952.083391020239</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758595</v>
+        <v>1561.944059044427</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,52 +4462,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.4252100145765</v>
+        <v>985.266880543759</v>
       </c>
       <c r="C4" t="n">
-        <v>214.4252100145765</v>
+        <v>816.3306976158522</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>666.2140582035164</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>518.3009646211233</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>371.411017123213</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>203.708180497932</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
         <v>1837.46409084602</v>
@@ -4519,19 +4519,19 @@
         <v>1615.697475415546</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="W4" t="n">
-        <v>782.4929502983423</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="X4" t="n">
-        <v>554.503399400325</v>
+        <v>1387.707924517529</v>
       </c>
       <c r="Y4" t="n">
-        <v>396.0736748448163</v>
+        <v>1166.915345373999</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1506.363819949361</v>
+        <v>1867.11669882964</v>
       </c>
       <c r="C5" t="n">
-        <v>1137.401303008949</v>
+        <v>1498.154181889228</v>
       </c>
       <c r="D5" t="n">
-        <v>779.1356044021989</v>
+        <v>1139.888483282477</v>
       </c>
       <c r="E5" t="n">
-        <v>779.1356044021989</v>
+        <v>754.1002306842331</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y5" t="n">
-        <v>1892.963660013483</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4641,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>776.4603107317583</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>838.5106002518377</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>688.3939608395019</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1883.342009239906</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1661.575393809432</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1661.575393809432</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1406.890905603545</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.890905603545</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>1178.901354705528</v>
+        <v>1409.887827153514</v>
       </c>
       <c r="Y7" t="n">
-        <v>958.1087755619981</v>
+        <v>1189.095248009984</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1917.382287315189</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3025.184346698694</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3025.184346698694</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2694.121459355123</v>
+        <v>2777.554502873044</v>
       </c>
       <c r="W8" t="n">
-        <v>2694.121459355123</v>
+        <v>2424.78584760293</v>
       </c>
       <c r="X8" t="n">
-        <v>2694.121459355123</v>
+        <v>2051.32008934185</v>
       </c>
       <c r="Y8" t="n">
-        <v>2303.982127379311</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943.7005868594143</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4993,19 +4993,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1647.167205106849</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1392.482716900962</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W10" t="n">
-        <v>1392.482716900962</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X10" t="n">
-        <v>1164.493166002944</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="Y10" t="n">
-        <v>943.7005868594143</v>
+        <v>1028.023374507999</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,16 +5036,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>221.3431781811722</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>221.3431781811722</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>1016.580456911443</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681063</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993914</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1419.021500885213</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138413</v>
+        <v>1419.021500885213</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703112</v>
+        <v>1198.228921741683</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898186995</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5428,7 +5428,7 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,19 +5437,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2334.285089135946</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2334.285089135946</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2045.209862480144</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>710.248605371872</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179092</v>
+        <v>984.5467179762943</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408904</v>
+        <v>815.6105350483874</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408904</v>
+        <v>665.4938956360517</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>517.5808020536585</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>370.6908545557482</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359457</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614394</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179092</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647278</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>800.5007694647278</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>650.384130052392</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>502.4710364699989</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908938</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949675</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380891</v>
+        <v>571.6607764188011</v>
       </c>
       <c r="C25" t="n">
-        <v>614.6217844681063</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611859</v>
+        <v>974.101820392571</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683289</v>
+        <v>753.3092412490408</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>363.736961327735</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036841</v>
+        <v>363.736961327735</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>363.736961327735</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6391,7 +6391,7 @@
         <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851784</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6637,7 +6637,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6701,16 +6701,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>837.0999500998682</v>
+        <v>778.734434753964</v>
       </c>
       <c r="C34" t="n">
-        <v>683.8922856517177</v>
+        <v>625.5267703058141</v>
       </c>
       <c r="D34" t="n">
-        <v>549.5041647191383</v>
+        <v>568.7871704218624</v>
       </c>
       <c r="E34" t="n">
-        <v>417.3195896165015</v>
+        <v>568.7871704218624</v>
       </c>
       <c r="F34" t="n">
-        <v>286.1581605983475</v>
+        <v>437.625741403709</v>
       </c>
       <c r="G34" t="n">
-        <v>286.1581605983475</v>
+        <v>286.158160598346</v>
       </c>
       <c r="H34" t="n">
-        <v>160.1748479203019</v>
+        <v>160.1748479203012</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>189.4682024403049</v>
+        <v>189.468202440305</v>
       </c>
       <c r="K34" t="n">
-        <v>466.5729859278526</v>
+        <v>466.5729859278535</v>
       </c>
       <c r="L34" t="n">
-        <v>872.387101065802</v>
+        <v>872.3871010658036</v>
       </c>
       <c r="M34" t="n">
-        <v>1309.812324758846</v>
+        <v>1309.812324758848</v>
       </c>
       <c r="N34" t="n">
-        <v>1742.637717380863</v>
+        <v>1742.637717380866</v>
       </c>
       <c r="O34" t="n">
-        <v>2127.582519051857</v>
+        <v>2127.582519051861</v>
       </c>
       <c r="P34" t="n">
-        <v>2435.673495587425</v>
+        <v>2435.673495587429</v>
       </c>
       <c r="Q34" t="n">
-        <v>2570.287251276334</v>
+        <v>2570.287251276339</v>
       </c>
       <c r="R34" t="n">
-        <v>2518.970066008493</v>
+        <v>2518.970066008499</v>
       </c>
       <c r="S34" t="n">
-        <v>2351.843750143154</v>
+        <v>2351.84375014316</v>
       </c>
       <c r="T34" t="n">
-        <v>2147.970803645851</v>
+        <v>2147.970803645858</v>
       </c>
       <c r="U34" t="n">
-        <v>1874.624095469805</v>
+        <v>1874.624095469813</v>
       </c>
       <c r="V34" t="n">
-        <v>1635.668125743674</v>
+        <v>1635.668125743684</v>
       </c>
       <c r="W34" t="n">
-        <v>1361.97947418647</v>
+        <v>1361.97947418648</v>
       </c>
       <c r="X34" t="n">
-        <v>1208.083957114125</v>
+        <v>1149.71844176822</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.019896450352</v>
+        <v>944.6543811044467</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7260,19 +7260,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,25 +7312,25 @@
         <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384011</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,13 +7360,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,10 +7582,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7594,13 +7594,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7734,13 +7734,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7792,7 +7792,7 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345475</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954145</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380724</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,19 +7819,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7843,10 +7843,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.359690138258429e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>97.95568926599663</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.187761788176</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>47.12005533005305</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>105.2833318990678</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.7392260421409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>87.17534280744478</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>90.96364621897678</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>135.8503182118951</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>39.70888054695433</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>37.70876137137921</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>31.7134015457942</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012312</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>46.67206947361723</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>41.29766760034482</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194271</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>119.8635921600927</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>265.8002026072642</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>271.4238899833687</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>76.87203583813991</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>130.8627293516097</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>149.95290499731</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>57.78186019245663</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1215881.679162347</v>
+        <v>1215881.679162348</v>
       </c>
     </row>
     <row r="13">
@@ -26314,7 +26314,7 @@
         <v>187548.4044340064</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="D2" t="n">
         <v>225786.4867126779</v>
@@ -26326,10 +26326,10 @@
         <v>221965.3149147517</v>
       </c>
       <c r="G2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="H2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
         <v>221965.3149147517</v>
@@ -26341,19 +26341,19 @@
         <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>224415.4372624255</v>
+        <v>224415.4372624258</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596705</v>
+        <v>12456.98663596761</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.75929317654</v>
+        <v>92025.75929317599</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12820.12292715301</v>
+        <v>12820.12292715304</v>
       </c>
       <c r="C4" t="n">
+        <v>92183.89891818175</v>
+      </c>
+      <c r="D4" t="n">
         <v>92183.8989181817</v>
       </c>
-      <c r="D4" t="n">
-        <v>92183.89891818175</v>
-      </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>18120.57590149342</v>
+        <v>18120.57590149366</v>
       </c>
       <c r="M4" t="n">
         <v>20987.7234099239</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.72340992389</v>
+        <v>20987.72340992391</v>
       </c>
       <c r="O4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="P4" t="n">
         <v>20987.72340992391</v>
@@ -26497,7 +26497,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>102431.587835781</v>
+        <v>102431.5878357811</v>
       </c>
       <c r="M5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1261950.404782132</v>
+        <v>-1262298.023711938</v>
       </c>
       <c r="C6" t="n">
-        <v>25668.64723310291</v>
+        <v>25668.64723310292</v>
       </c>
       <c r="D6" t="n">
-        <v>25668.64723310283</v>
+        <v>25668.64723310267</v>
       </c>
       <c r="E6" t="n">
-        <v>-217566.540863341</v>
+        <v>-217601.2787887767</v>
       </c>
       <c r="F6" t="n">
-        <v>107845.9209440139</v>
+        <v>107811.1830185784</v>
       </c>
       <c r="G6" t="n">
-        <v>107845.9209440141</v>
+        <v>107811.1830185784</v>
       </c>
       <c r="H6" t="n">
-        <v>107845.9209440142</v>
+        <v>107811.1830185784</v>
       </c>
       <c r="I6" t="n">
-        <v>107845.9209440141</v>
+        <v>107811.1830185785</v>
       </c>
       <c r="J6" t="n">
-        <v>-109685.2814532634</v>
+        <v>-109720.019378699</v>
       </c>
       <c r="K6" t="n">
-        <v>107845.9209440141</v>
+        <v>107811.1830185784</v>
       </c>
       <c r="L6" t="n">
-        <v>91406.28688918402</v>
+        <v>91393.82280327209</v>
       </c>
       <c r="M6" t="n">
-        <v>9608.888155662222</v>
+        <v>9608.888155662804</v>
       </c>
       <c r="N6" t="n">
-        <v>101634.6474488387</v>
+        <v>101634.6474488388</v>
       </c>
       <c r="O6" t="n">
-        <v>101634.6474488387</v>
+        <v>101634.6474488388</v>
       </c>
       <c r="P6" t="n">
-        <v>101634.6474488387</v>
+        <v>101634.6474488388</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197080876</v>
+        <v>8.713414197080221</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>112.3005183048497</v>
+        <v>31.69330267295612</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>83.32522828944225</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>146.2560118713415</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>15.68847176642421</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>98.28718484916519</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>228.4347179299544</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>86.20462231301642</v>
       </c>
     </row>
     <row r="11">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="C34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="D34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="E34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="F34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="G34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="H34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="I34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="J34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="K34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="L34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="M34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="N34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="O34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="P34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="R34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="S34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="T34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="U34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="V34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="W34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="X34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.57123329495881</v>
+        <v>15.57123329495951</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,28 +31838,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>255.6522884173741</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>316.6133175811567</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32233,34 +32233,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L18" t="n">
-        <v>270.97169333569</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32552,28 +32552,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32789,28 +32789,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>508.8976500257891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,28 +33026,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33196,7 +33196,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33263,28 +33263,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>714.932815742495</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,10 +33500,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>342.490526454265</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34144,10 +34144,10 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34454,16 +34454,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>574.2721069128561</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>128.8146617507074</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>174.4792836591383</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L18" t="n">
-        <v>132.4173135558158</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,13 +36127,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36200,28 +36200,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36437,28 +36437,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>366.7636161037707</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36911,28 +36911,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>572.7987818204766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.61771655791216</v>
+        <v>96.61771655791287</v>
       </c>
       <c r="K34" t="n">
-        <v>279.9038217045937</v>
+        <v>279.9038217045944</v>
       </c>
       <c r="L34" t="n">
-        <v>409.9132476140902</v>
+        <v>409.9132476140909</v>
       </c>
       <c r="M34" t="n">
-        <v>441.8436602960039</v>
+        <v>441.8436602960046</v>
       </c>
       <c r="N34" t="n">
-        <v>437.1973662848662</v>
+        <v>437.1973662848669</v>
       </c>
       <c r="O34" t="n">
-        <v>388.8331330010042</v>
+        <v>388.8331330010049</v>
       </c>
       <c r="P34" t="n">
-        <v>311.2030066015838</v>
+        <v>311.2030066015844</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.9734905948572</v>
+        <v>135.9734905948579</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>211.1488143709317</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37479,10 +37479,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,10 +37716,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,10 +37792,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38102,16 +38102,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>431.6758624684117</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
